--- a/Data/appData/testdatendbh/Test3 SAP.XLSX
+++ b/Data/appData/testdatendbh/Test3 SAP.XLSX
@@ -515,7 +515,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1012,7 +1012,7 @@
     <col min="73" max="73" style="15" width="15.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="54.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="57.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="9" t="s">
         <v>73</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>90</v>
       </c>
       <c r="AO2" s="14">
-        <v>1.5892708333333334</v>
+        <v>2.5892708333333334</v>
       </c>
       <c r="AP2" s="9"/>
       <c r="AQ2" s="9"/>
@@ -1380,7 +1380,7 @@
         <v>45405</v>
       </c>
       <c r="BN2" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO2" s="9" t="s">
         <v>97</v>
@@ -1402,7 +1402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="9" t="s">
         <v>73</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>90</v>
       </c>
       <c r="AO3" s="14">
-        <v>1.5892708333333334</v>
+        <v>2.5892708333333334</v>
       </c>
       <c r="AP3" s="9"/>
       <c r="AQ3" s="9"/>
@@ -1549,7 +1549,7 @@
         <v>45405</v>
       </c>
       <c r="BN3" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO3" s="9" t="s">
         <v>97</v>
@@ -1571,7 +1571,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="9" t="s">
         <v>104</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>90</v>
       </c>
       <c r="AO4" s="14">
-        <v>1.5895717592592593</v>
+        <v>2.5895717592592593</v>
       </c>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="9"/>
@@ -1718,7 +1718,7 @@
         <v>45405</v>
       </c>
       <c r="BN4" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO4" s="9" t="s">
         <v>97</v>
@@ -1740,7 +1740,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="9" t="s">
         <v>104</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>90</v>
       </c>
       <c r="AO5" s="14">
-        <v>1.5895717592592593</v>
+        <v>2.5895717592592593</v>
       </c>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="9"/>
@@ -1887,7 +1887,7 @@
         <v>45405</v>
       </c>
       <c r="BN5" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO5" s="9" t="s">
         <v>97</v>
@@ -1909,7 +1909,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="9" t="s">
         <v>104</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>90</v>
       </c>
       <c r="AO6" s="14">
-        <v>1.5895717592592593</v>
+        <v>2.5895717592592593</v>
       </c>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
@@ -2056,7 +2056,7 @@
         <v>45405</v>
       </c>
       <c r="BN6" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO6" s="9" t="s">
         <v>97</v>
@@ -2078,7 +2078,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="9" t="s">
         <v>104</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>90</v>
       </c>
       <c r="AO7" s="14">
-        <v>1.5895717592592593</v>
+        <v>2.5895717592592593</v>
       </c>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="9"/>
@@ -2225,7 +2225,7 @@
         <v>45405</v>
       </c>
       <c r="BN7" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO7" s="9" t="s">
         <v>97</v>
@@ -2247,7 +2247,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="9" t="s">
         <v>113</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>90</v>
       </c>
       <c r="AO8" s="14">
-        <v>1.5918287037037038</v>
+        <v>2.5918287037037038</v>
       </c>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="9"/>
@@ -2394,7 +2394,7 @@
         <v>45405</v>
       </c>
       <c r="BN8" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO8" s="9" t="s">
         <v>97</v>
@@ -2416,7 +2416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="9" t="s">
         <v>121</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>90</v>
       </c>
       <c r="AO9" s="14">
-        <v>1.5900694444444445</v>
+        <v>2.5900694444444445</v>
       </c>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
@@ -2563,7 +2563,7 @@
         <v>45405</v>
       </c>
       <c r="BN9" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO9" s="9" t="s">
         <v>97</v>
@@ -2585,7 +2585,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="9" t="s">
         <v>126</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>90</v>
       </c>
       <c r="AO10" s="14">
-        <v>1.470925925925926</v>
+        <v>2.470925925925926</v>
       </c>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="9"/>
@@ -2732,7 +2732,7 @@
         <v>45405</v>
       </c>
       <c r="BN10" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO10" s="9" t="s">
         <v>97</v>
@@ -2754,7 +2754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="9" t="s">
         <v>126</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>90</v>
       </c>
       <c r="AO11" s="14">
-        <v>1.470925925925926</v>
+        <v>2.470925925925926</v>
       </c>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="9"/>
@@ -2901,7 +2901,7 @@
         <v>45405</v>
       </c>
       <c r="BN11" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO11" s="9" t="s">
         <v>97</v>
@@ -2923,7 +2923,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="9" t="s">
         <v>133</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>90</v>
       </c>
       <c r="AO12" s="14">
-        <v>1.590300925925926</v>
+        <v>2.590300925925926</v>
       </c>
       <c r="AP12" s="9"/>
       <c r="AQ12" s="9"/>
@@ -3068,7 +3068,7 @@
         <v>45405</v>
       </c>
       <c r="BN12" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO12" s="9" t="s">
         <v>97</v>
@@ -3090,7 +3090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="9" t="s">
         <v>141</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>90</v>
       </c>
       <c r="AO13" s="14">
-        <v>1.4716666666666667</v>
+        <v>2.4716666666666667</v>
       </c>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9"/>
@@ -3237,7 +3237,7 @@
         <v>45405</v>
       </c>
       <c r="BN13" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO13" s="9" t="s">
         <v>97</v>
@@ -3259,7 +3259,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="9" t="s">
         <v>141</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>90</v>
       </c>
       <c r="AO14" s="14">
-        <v>1.4716666666666667</v>
+        <v>2.4716666666666667</v>
       </c>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="9"/>
@@ -3406,7 +3406,7 @@
         <v>45405</v>
       </c>
       <c r="BN14" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO14" s="9" t="s">
         <v>97</v>
@@ -3428,7 +3428,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="9" t="s">
         <v>147</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>90</v>
       </c>
       <c r="AO15" s="14">
-        <v>1.4719444444444445</v>
+        <v>2.4719444444444445</v>
       </c>
       <c r="AP15" s="9"/>
       <c r="AQ15" s="9"/>
@@ -3575,7 +3575,7 @@
         <v>45405</v>
       </c>
       <c r="BN15" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO15" s="9" t="s">
         <v>97</v>
@@ -3597,7 +3597,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="9" t="s">
         <v>152</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>90</v>
       </c>
       <c r="AO16" s="14">
-        <v>1.469976851851852</v>
+        <v>2.469976851851852</v>
       </c>
       <c r="AP16" s="9"/>
       <c r="AQ16" s="9"/>
@@ -3744,7 +3744,7 @@
         <v>45405</v>
       </c>
       <c r="BN16" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO16" s="9" t="s">
         <v>97</v>
@@ -3766,7 +3766,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="9" t="s">
         <v>156</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>90</v>
       </c>
       <c r="AO17" s="14">
-        <v>1.476724537037037</v>
+        <v>2.476724537037037</v>
       </c>
       <c r="AP17" s="9"/>
       <c r="AQ17" s="9"/>
@@ -3913,7 +3913,7 @@
         <v>45405</v>
       </c>
       <c r="BN17" s="14">
-        <v>1.8775925925925927</v>
+        <v>2.8775925925925927</v>
       </c>
       <c r="BO17" s="9" t="s">
         <v>97</v>
